--- a/PRACA2_/CSV/MachinesTimes.xlsx
+++ b/PRACA2_/CSV/MachinesTimes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maciek\Desktop\PRACA2_\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{534F3A52-9F4F-4AD1-BC90-311D2B27B314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4125C53-A93F-4168-9429-265E98522ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1CA6A60D-EC84-4EB4-925F-C773D02F1BD1}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E83DF9-6107-4E33-953B-A78E45017FF7}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,8 +427,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f ca="1">RAND()</f>
-        <v>0.84511031438097239</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -439,8 +438,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C13" ca="1" si="0">RAND()</f>
-        <v>0.37108303772895235</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -451,8 +449,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.19734889398953259</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -463,8 +460,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.46705748462614449</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -475,92 +471,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4598189738339874</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
         <v>5</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.2253003982268629E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.13576975833998783</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.74449131248357647</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.74054508416274722</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.43302356262808961</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.28309759498600684</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.3986409017749204</v>
       </c>
     </row>
   </sheetData>
